--- a/Package.xlsx
+++ b/Package.xlsx
@@ -1,22 +1,219 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddharth Kumar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddharth Kumar\Documents\GitHub\TourismSpecialist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAFF9143-30DA-4A66-9514-724C22B32F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CD73B7B-EC81-43C1-A818-E91667E6EAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="495" windowWidth="20565" windowHeight="12975"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Package" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>SrNo</t>
+  </si>
+  <si>
+    <t>Places</t>
+  </si>
+  <si>
+    <t>Price Per Day</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Delhi-&gt;NYC-&gt;London-&gt;Egypt-&gt;Delhi</t>
+  </si>
+  <si>
+    <t>In this package we will vist places like India Gate - Times Square - London city and Nile River and Many more.</t>
+  </si>
+  <si>
+    <t>Bangalore-&gt;Toronto-&gt;Germany-&gt;Bangalore</t>
+  </si>
+  <si>
+    <t>In this package we travel to tronoto and Germany.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delhi-&gt;Houston-&gt;Spain-&gt;Delhi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In this package we will travell to NASA command Center and Spain.</t>
+  </si>
+  <si>
+    <t>Bangalore-&gt;San Fransisco-&gt;Bejing-&gt;Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In this Package we visit the beautiful San Frasisco and the lights of Beijing.</t>
+  </si>
+  <si>
+    <t>Delhi-&gt;Queens-&gt;Singapore-&gt;Delhi</t>
+  </si>
+  <si>
+    <t>This Package we will visit places like queens and the country Singapore.</t>
+  </si>
+  <si>
+    <t>Bangalore-&gt;Paris-&gt;Grand Canyon-&gt;Bangalore</t>
+  </si>
+  <si>
+    <t>This Package will take you to Eiffel tower and the Grand Canyon.</t>
+  </si>
+  <si>
+    <t>Delhi-&gt;New Zealand-&gt;Colosseum(Rome)</t>
+  </si>
+  <si>
+    <t>This Package will take you to the beautiful New Zealand and Colosseum in Rome.</t>
+  </si>
+  <si>
+    <t>Bangalore-&gt;Machu Picchu Peru-&gt;Great Barrier Reef</t>
+  </si>
+  <si>
+    <t>This package will take you to Peru and Ausrialia and many more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delhi-&gt;Bangalore-&gt;UP-&gt;Jammu Kashmir-&gt;Delhi </t>
+  </si>
+  <si>
+    <t>This packa will tale you on a tour of India.</t>
+  </si>
+  <si>
+    <t>Bangalore-&gt;KanyaKumari-&gt;Gujrat-&gt;J&amp;K-&gt;Assam-&gt;Bangalore</t>
+  </si>
+  <si>
+    <t>The tour of North-South-East-West of India.</t>
+  </si>
+  <si>
+    <t>Delhi-&gt;Singapore-&gt;Jakarta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit two of the most popular cities of South East Asia </t>
+  </si>
+  <si>
+    <t>Delhi-&gt;Tokyo-&gt;Osaka-&gt;Hiroshima</t>
+  </si>
+  <si>
+    <t>This package will take you to one of the most advanced and culturally rich in heritage country Japan</t>
+  </si>
+  <si>
+    <t>Delhi-&gt;Adelaide-&gt;Melbourne-&gt;Brisbane</t>
+  </si>
+  <si>
+    <t>A great offer to spend your holidays down under and visit top cities of Australia</t>
+  </si>
+  <si>
+    <t>Delhi-&gt;Nairobi-&gt;CapeTown-&gt;Harare</t>
+  </si>
+  <si>
+    <t>A unique package where you can spend your holidays in wildlife of Africa.</t>
+  </si>
+  <si>
+    <t>Delhi-&gt;Rio de Janeiro-&gt;SÃ£o Paulo-&gt;BrasÃ­lia</t>
+  </si>
+  <si>
+    <t>A visit to football land and also to witness the great The statue of Christ the Redeemer.</t>
+  </si>
+  <si>
+    <t>Delhi-&gt;Bueno Aires-&gt;Mendoza</t>
+  </si>
+  <si>
+    <t>The eighth largest country in the world. The glaciers and mountains of Patagonia are splendorous and the waterfalls in Iguazu are the biggest and most beautiful in the world.</t>
+  </si>
+  <si>
+    <t>Delhi-&gt;Beijing-&gt;Chongqing-&gt;Wuhan-&gt;Guanghzau-&gt;Chengdu-&gt;Nanjing</t>
+  </si>
+  <si>
+    <t>Visit china and witness its awesome heritage and culture.</t>
+  </si>
+  <si>
+    <t>Delhi-&gt;Rome-&gt;Paris-&gt;London-&gt;Berlin</t>
+  </si>
+  <si>
+    <t>The exotic places of Europe all covered in a single package. Visit to experience true beauty of Europe.</t>
+  </si>
+  <si>
+    <t>Delhi-&gt;Toronto-&gt;Quebec-&gt;Montreal</t>
+  </si>
+  <si>
+    <t>Visit Canada for its scenery ice-hockey Maple-Syrup and extremely polite citizens.</t>
+  </si>
+  <si>
+    <t>Delhi-&gt;Auckland-&gt;Wellington-&gt;Christchurch</t>
+  </si>
+  <si>
+    <t>Visit NewZealand and experience their culture and visit rugby and cricket stadiums.</t>
+  </si>
+  <si>
+    <t>Bangalore-&gt;Mumbai-&gt;Kolkatta-&gt;Chennai-&gt;Bangalore</t>
+  </si>
+  <si>
+    <t>Enjoy the travel through the metro cities with massive skyscrapers and bustling marketplaces.</t>
+  </si>
+  <si>
+    <t>Kolkatta-&gt;Darjeeling-&gt;Gangtok-&gt;Pelling-&gt;Kolkatta</t>
+  </si>
+  <si>
+    <t>Peaceful hill stations with exotic sceneries and chilling adventures to go on.</t>
+  </si>
+  <si>
+    <t>Gangtok-&gt;Kalimpong-&gt;Darjeeling</t>
+  </si>
+  <si>
+    <t>Calm hill stations and lots of tea plantations everywhere.</t>
+  </si>
+  <si>
+    <t>Tirupati-&gt;Chennai-&gt;Madurai</t>
+  </si>
+  <si>
+    <t>The rich culture and heritage of the south with glorious temples sure to give enriching experiences.</t>
+  </si>
+  <si>
+    <t>Bhubaneswar-&gt;Puri</t>
+  </si>
+  <si>
+    <t>Explore the heart of Odissha and its historical glory.</t>
+  </si>
+  <si>
+    <t>Chennai-&gt;Pondicherry-&gt;Kodaikonal-&gt;Madurai</t>
+  </si>
+  <si>
+    <t>Explore the entirity of Tamil nadu to its full extent.</t>
+  </si>
+  <si>
+    <t>Bangalore-&gt;Goa</t>
+  </si>
+  <si>
+    <t>Relaxing - free trip through goas mesmerizing beaches.</t>
+  </si>
+  <si>
+    <t>Cochin-&gt;Munnar-&gt;Thekkady-&gt;Alleppey</t>
+  </si>
+  <si>
+    <t>An exciting trip to see the best that kerala offers.</t>
+  </si>
+  <si>
+    <t>Bangalore-&gt;Calicut-&gt;Trivandrum</t>
+  </si>
+  <si>
+    <t>Round trip through kerala.</t>
+  </si>
+  <si>
+    <t>Bangalore-&gt;Shimla-&gt;Mussourrie-&gt;Nainital-&gt;Corbett</t>
+  </si>
+  <si>
+    <t>India s best hill stations with exotic natural scenery and horizons.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -855,29 +1052,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="158.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="C2">
+        <v>156000</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>110000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>120200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>130500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>207100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>230700</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>210800</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>240320</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>123000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>230000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>110000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>125000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>165000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>142000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>151000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>151000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>110000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>190000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>187000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>160000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>4400</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>3300</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>5678</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>3000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>2986</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>6500</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>7800</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
+        <v>8900</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>7768</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31">
+        <v>12450</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
